--- a/Retail Brands/VSCO_MODEL.xlsx
+++ b/Retail Brands/VSCO_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Retail Brands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234D6DA2-2DC1-4D0B-AD45-EC8A73A2290A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718F5BB5-6870-4669-B496-2EE4B1FF410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,40 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alex</author>
+  </authors>
+  <commentList>
+    <comment ref="N26" authorId="0" shapeId="0" xr:uid="{1C899891-FC40-4D27-B0AD-2666484CA30D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alex:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Acquisition</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
@@ -458,7 +492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +558,19 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1026,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1176,11 +1223,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1810,91 +1857,91 @@
         <v>11</v>
       </c>
       <c r="C12" s="4">
-        <f>C10-SUM(C11:C11)</f>
+        <f t="shared" ref="C12:X12" si="2">C10-SUM(C11:C11)</f>
         <v>-172</v>
       </c>
       <c r="D12" s="4">
-        <f>D10-SUM(D11:D11)</f>
+        <f t="shared" si="2"/>
         <v>-243</v>
       </c>
       <c r="E12" s="4">
-        <f>E10-SUM(E11:E11)</f>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="F12" s="4">
-        <f>F10-SUM(F11:F11)</f>
+        <f t="shared" si="2"/>
         <v>387</v>
       </c>
       <c r="G12" s="4">
-        <f>G10-SUM(G11:G11)</f>
+        <f t="shared" si="2"/>
         <v>226</v>
       </c>
       <c r="H12" s="4">
-        <f>H10-SUM(H11:H11)</f>
+        <f t="shared" si="2"/>
         <v>203</v>
       </c>
       <c r="I12" s="4">
-        <f>I10-SUM(I11:I11)</f>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="J12" s="4">
-        <f>J10-SUM(J11:J11)</f>
+        <f t="shared" si="2"/>
         <v>333</v>
       </c>
       <c r="K12" s="4">
-        <f>K10-SUM(K11:K11)</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="L12" s="4">
-        <f>L10-SUM(L11:L11)</f>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="M12" s="4">
-        <f>M10-SUM(M11:M11)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="N12" s="4">
-        <f>N10-SUM(N11:N11)</f>
+        <f t="shared" si="2"/>
         <v>243</v>
       </c>
       <c r="O12" s="4">
-        <f>O10-SUM(O11:O11)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="P12" s="4">
-        <f>P10-SUM(P11:P11)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="Q12" s="4">
-        <f>Q10-SUM(Q11:Q11)</f>
+        <f t="shared" si="2"/>
         <v>-67</v>
       </c>
       <c r="R12" s="4">
-        <f>R10-SUM(R11:R11)</f>
+        <f t="shared" si="2"/>
         <v>258</v>
       </c>
       <c r="S12" s="4">
-        <f>S10-SUM(S11:S11)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="T12" s="4">
-        <f>T10-SUM(T11:T11)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="U12" s="4">
-        <f>U10-SUM(U11:U11)</f>
+        <f t="shared" si="2"/>
         <v>-47</v>
       </c>
       <c r="V12" s="4">
-        <f>V10-SUM(V11:V11)</f>
+        <f t="shared" si="2"/>
         <v>268</v>
       </c>
       <c r="W12" s="4">
-        <f>W10-SUM(W11:W11)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="X12" s="4">
-        <f>X10-SUM(X11:X11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2039,83 +2086,83 @@
         <v>12</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ref="C15:V15" si="2">C13-C14</f>
+        <f t="shared" ref="C15:V15" si="3">C13-C14</f>
         <v>-897</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-200</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>283</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>172</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-71</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-55</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="W15" s="5">
@@ -2276,71 +2323,71 @@
         <v>45</v>
       </c>
       <c r="H19" s="34">
-        <f>(H8/D8) - 1</f>
+        <f t="shared" ref="H19:X19" si="4">(H8/D8) - 1</f>
         <v>0.5140712945590995</v>
       </c>
       <c r="I19" s="34">
-        <f>(I8/E8) - 1</f>
+        <f t="shared" si="4"/>
         <v>6.5040650406503975E-2</v>
       </c>
       <c r="J19" s="34">
-        <f>(J8/F8) - 1</f>
+        <f t="shared" si="4"/>
         <v>3.5714285714285809E-2</v>
       </c>
       <c r="K19" s="34">
-        <f>(K8/G8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-4.5045045045045029E-2</v>
       </c>
       <c r="L19" s="34">
-        <f>(L8/H8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-5.762081784386619E-2</v>
       </c>
       <c r="M19" s="34">
-        <f>(M8/I8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-8.5357390700902203E-2</v>
       </c>
       <c r="N19" s="34">
-        <f>(N8/J8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-7.0804597701149441E-2</v>
       </c>
       <c r="O19" s="34">
-        <f>(O8/K8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-5.1886792452830233E-2</v>
       </c>
       <c r="P19" s="34">
-        <f>(P8/L8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-6.1801446416831052E-2</v>
       </c>
       <c r="Q19" s="34">
-        <f>(Q8/M8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-4.0212443095599348E-2</v>
       </c>
       <c r="R19" s="34">
-        <f>(R8/N8) - 1</f>
+        <f t="shared" si="4"/>
         <v>3.0183077684314608E-2</v>
       </c>
       <c r="S19" s="34">
-        <f>(S8/O8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-3.4115138592750505E-2</v>
       </c>
       <c r="T19" s="34">
-        <f>(T8/P8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-7.0077084793273015E-3</v>
       </c>
       <c r="U19" s="34">
-        <f>(U8/Q8) - 1</f>
+        <f t="shared" si="4"/>
         <v>6.4822134387351849E-2</v>
       </c>
       <c r="V19" s="34">
-        <f>(V8/R8) - 1</f>
+        <f t="shared" si="4"/>
         <v>1.1527377521613813E-2</v>
       </c>
       <c r="W19" s="34">
-        <f>(W8/S8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-4.4150110375276164E-3</v>
       </c>
       <c r="X19" s="34">
-        <f>(X8/T8) - 1</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -2352,83 +2399,83 @@
         <v>45</v>
       </c>
       <c r="E20" s="6">
-        <f xml:space="preserve"> (E8/D8) - 1</f>
+        <f t="shared" ref="E20:X20" si="5" xml:space="preserve"> (E8/D8) - 1</f>
         <v>0.26923076923076916</v>
       </c>
       <c r="F20" s="6">
-        <f xml:space="preserve"> (F8/E8) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.55210643015521055</v>
       </c>
       <c r="G20" s="6">
-        <f xml:space="preserve"> (G8/F8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-0.26</v>
       </c>
       <c r="H20" s="6">
-        <f xml:space="preserve"> (H8/G8) - 1</f>
+        <f t="shared" si="5"/>
         <v>3.8610038610038533E-2</v>
       </c>
       <c r="I20" s="6">
-        <f xml:space="preserve"> (I8/H8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-0.10718711276332094</v>
       </c>
       <c r="J20" s="6">
-        <f xml:space="preserve"> (J8/I8) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.50936849410131857</v>
       </c>
       <c r="K20" s="6">
-        <f xml:space="preserve"> (K8/J8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-0.31770114942528738</v>
       </c>
       <c r="L20" s="6">
-        <f xml:space="preserve"> (L8/K8) - 1</f>
+        <f t="shared" si="5"/>
         <v>2.4932614555255972E-2</v>
       </c>
       <c r="M20" s="6">
-        <f xml:space="preserve"> (M8/L8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-0.13346482577251806</v>
       </c>
       <c r="N20" s="6">
-        <f xml:space="preserve"> (N8/M8) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.53338391502276172</v>
       </c>
       <c r="O20" s="6">
-        <f xml:space="preserve"> (O8/N8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-0.3038099950519545</v>
       </c>
       <c r="P20" s="6">
-        <f xml:space="preserve"> (P8/O8) - 1</f>
+        <f t="shared" si="5"/>
         <v>1.4214641080312784E-2</v>
       </c>
       <c r="Q20" s="6">
-        <f xml:space="preserve"> (Q8/P8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-0.11352487736510164</v>
       </c>
       <c r="R20" s="6">
-        <f xml:space="preserve"> (R8/Q8) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.64584980237154155</v>
       </c>
       <c r="S20" s="6">
-        <f xml:space="preserve"> (S8/R8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-0.3472622478386167</v>
       </c>
       <c r="T20" s="6">
-        <f xml:space="preserve"> (T8/S8) - 1</f>
+        <f t="shared" si="5"/>
         <v>4.2678440029433329E-2</v>
       </c>
       <c r="U20" s="6">
-        <f xml:space="preserve"> (U8/T8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-4.9400141143260412E-2</v>
       </c>
       <c r="V20" s="6">
-        <f xml:space="preserve"> (V8/U8) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.56347438752783963</v>
       </c>
       <c r="W20" s="6">
-        <f xml:space="preserve"> (W8/V8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-0.35754985754985757</v>
       </c>
       <c r="X20" s="6">
-        <f xml:space="preserve"> (X8/W8) - 1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
@@ -2588,131 +2635,222 @@
       <c r="B25" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="31">
+        <v>315</v>
+      </c>
       <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
+      <c r="E25" s="31">
+        <v>201</v>
+      </c>
+      <c r="F25" s="31">
+        <v>583</v>
+      </c>
+      <c r="G25" s="31">
+        <v>102</v>
+      </c>
+      <c r="H25" s="31">
+        <v>287</v>
+      </c>
+      <c r="I25" s="31">
+        <v>-11</v>
+      </c>
+      <c r="J25" s="31">
+        <v>473</v>
+      </c>
+      <c r="K25" s="31">
+        <v>-146</v>
+      </c>
+      <c r="L25" s="31">
+        <v>95</v>
+      </c>
+      <c r="M25" s="32">
+        <v>-228</v>
+      </c>
+      <c r="N25" s="32">
+        <v>716</v>
+      </c>
+      <c r="O25" s="32">
+        <v>-108</v>
+      </c>
+      <c r="P25" s="32">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>-181</v>
+      </c>
+      <c r="R25" s="32">
+        <v>589</v>
+      </c>
+      <c r="S25" s="32">
+        <v>-116</v>
+      </c>
+      <c r="T25" s="8">
+        <v>115</v>
+      </c>
+      <c r="U25" s="8">
+        <v>-248</v>
+      </c>
+      <c r="V25" s="8">
+        <v>674</v>
+      </c>
+      <c r="W25" s="8">
+        <v>-150</v>
+      </c>
     </row>
     <row r="26" spans="2:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="28">
+        <v>225</v>
+      </c>
       <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="V26" s="9"/>
+      <c r="E26" s="28">
+        <v>41</v>
+      </c>
+      <c r="F26" s="28">
+        <v>16</v>
+      </c>
+      <c r="G26" s="28">
+        <v>19</v>
+      </c>
+      <c r="H26" s="28">
+        <v>47</v>
+      </c>
+      <c r="I26" s="28">
+        <v>51</v>
+      </c>
+      <c r="J26" s="28">
+        <v>52</v>
+      </c>
+      <c r="K26" s="28">
+        <v>39</v>
+      </c>
+      <c r="L26" s="28">
+        <v>37</v>
+      </c>
+      <c r="M26" s="29">
+        <v>67</v>
+      </c>
+      <c r="N26" s="29">
+        <f xml:space="preserve"> 39+369</f>
+        <v>408</v>
+      </c>
+      <c r="O26" s="29">
+        <v>55</v>
+      </c>
+      <c r="P26" s="29">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>80</v>
+      </c>
+      <c r="R26" s="29">
+        <v>32</v>
+      </c>
+      <c r="S26" s="29">
+        <v>39</v>
+      </c>
+      <c r="T26" s="29">
+        <v>60</v>
+      </c>
+      <c r="U26" s="1">
+        <v>51</v>
+      </c>
+      <c r="V26" s="9">
+        <v>28</v>
+      </c>
+      <c r="W26" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="2:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>13</v>
       </c>
+      <c r="C27" s="8">
+        <f t="shared" ref="C27:V27" si="6">C25-C26</f>
+        <v>90</v>
+      </c>
       <c r="D27" s="8">
-        <f t="shared" ref="D27:V27" si="3">D25-D26</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="6"/>
+        <v>567</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="6"/>
+        <v>-62</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="6"/>
+        <v>421</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="6"/>
+        <v>-185</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="6"/>
+        <v>-295</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="6"/>
+        <v>308</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" si="6"/>
+        <v>-163</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="Q27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-261</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>557</v>
       </c>
       <c r="S27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-155</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-299</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>646</v>
       </c>
       <c r="W27" s="8">
         <f>W25-W26</f>
-        <v>0</v>
+        <v>-193</v>
       </c>
       <c r="X27" s="8">
         <f>X25-X26</f>
@@ -2759,73 +2897,73 @@
         <f>IF(#REF!=0,IF(G27=0,0,NA()),(G27-#REF!)/ABS(#REF!))</f>
         <v>#REF!</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" ref="H30:V30" si="4">IF(D27=0,IF(H27=0,0,NA()),(H27-D27)/ABS(D27))</f>
-        <v>0</v>
+      <c r="H30" s="6" t="e">
+        <f t="shared" ref="H30:V30" si="7">IF(D27=0,IF(H27=0,0,NA()),(H27-D27)/ABS(D27))</f>
+        <v>#N/A</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1.3875</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.25749559082892415</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-3.2289156626506026</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.7583333333333333</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-3.7580645161290325</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.26840855106888362</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.11891891891891893</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.11525423728813559</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.80844155844155841</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.9079754601226995E-2</v>
+      </c>
+      <c r="T30" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.14559386973180077</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.15978456014362658</v>
       </c>
       <c r="W30" s="6">
         <f>IF(S27=0,IF(W27=0,0,NA()),(W27-S27)/ABS(S27))</f>
-        <v>0</v>
+        <v>-0.24516129032258063</v>
       </c>
       <c r="X30" s="6">
         <f>IF(T27=0,IF(X27=0,0,NA()),(X27-T27)/ABS(T27))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3518,6 +3656,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4067,15 +4206,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -4219,6 +4349,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4226,14 +4365,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4247,6 +4378,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Retail Brands/VSCO_MODEL.xlsx
+++ b/Retail Brands/VSCO_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Retail Brands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718F5BB5-6870-4669-B496-2EE4B1FF410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4AC56E-5F1C-4D12-A1A9-78B5DCD970D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -335,51 +335,6 @@
     <t>Lululemon (LULU)</t>
   </si>
   <si>
-    <t>Victoria’s Secret (VSCO)</t>
-  </si>
-  <si>
-    <t>Aritzia (ATZ.TO)</t>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.17</t>
-    </r>
-  </si>
-  <si>
-    <t>~0.17</t>
-  </si>
-  <si>
-    <t>H&amp;M (HM B / HNNMY)</t>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>22.2</t>
-    </r>
-  </si>
-  <si>
-    <t>~0.94</t>
-  </si>
-  <si>
     <t>Price/Sales</t>
   </si>
   <si>
@@ -483,6 +438,27 @@
   </si>
   <si>
     <t>FY2019</t>
+  </si>
+  <si>
+    <t>Victorias Secret (VSCO)</t>
+  </si>
+  <si>
+    <t>ATZ.TO (Aritzia)*</t>
+  </si>
+  <si>
+    <t>H&amp;M (STO:HM.B)*</t>
+  </si>
+  <si>
+    <t>BEAT</t>
+  </si>
+  <si>
+    <t>RAISE</t>
+  </si>
+  <si>
+    <t>1.390 - 1.420 billion</t>
+  </si>
+  <si>
+    <t>6.330 to 6.410 billion FY2025</t>
   </si>
 </sst>
 </file>
@@ -492,13 +468,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -571,6 +553,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -684,57 +673,75 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1073,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1105,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>19.71</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>45874</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1116,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,7 +1135,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>1576.8000000000002</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1159,7 +1166,7 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>4258.8</v>
+        <v>4499</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1170,50 +1177,50 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1">
-        <v>2.4700000000000002</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1">
-        <v>7.49</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1">
-        <v>9.6999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1">
-        <v>9.58</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1226,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1238,15 +1245,15 @@
     <col min="18" max="20" width="13.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="18.85546875" style="1" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1254,124 +1261,124 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26">
         <v>363.6</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <v>755</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <v>1162</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <v>932.9</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="26">
         <v>1037</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="26">
         <v>920</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="26">
         <v>1304</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="26">
         <v>931</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="26">
         <v>969</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="26">
         <v>812.7</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="26">
         <v>1197</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="26">
         <v>786</v>
       </c>
       <c r="P3" s="1">
@@ -1398,10 +1405,13 @@
       <c r="W3" s="1">
         <v>721</v>
       </c>
+      <c r="X3" s="1">
+        <v>824.8</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1">
         <v>613.9</v>
@@ -1463,10 +1473,13 @@
       <c r="W4" s="1">
         <v>433</v>
       </c>
+      <c r="X4" s="1">
+        <v>406.5</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1">
         <v>88.8</v>
@@ -1528,23 +1541,26 @@
       <c r="W5" s="1">
         <v>198</v>
       </c>
+      <c r="X5" s="1">
+        <v>227.8</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1614,67 +1630,69 @@
       <c r="W8" s="3">
         <v>1353</v>
       </c>
-      <c r="X8" s="4"/>
+      <c r="X8" s="4">
+        <v>1459.1</v>
+      </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>5446</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>913</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <v>856</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <v>1200</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <v>882</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <v>944</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <v>876</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <v>1322</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="26">
         <v>962</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="26">
         <v>986</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="27">
         <v>861</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="27">
         <v>1277</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="27">
         <v>905</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="27">
         <v>940</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="27">
         <v>838</v>
       </c>
       <c r="R9" s="1">
         <v>1257</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="27">
         <v>858</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="27">
         <v>916</v>
       </c>
       <c r="U9" s="1">
@@ -1685,6 +1703,9 @@
       </c>
       <c r="W9" s="1">
         <v>879</v>
+      </c>
+      <c r="X9" s="1">
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1778,78 +1799,80 @@
       </c>
       <c r="X10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>519.09999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>2235</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>396</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>369</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>513</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>446</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>467</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>457</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>520</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>427</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>438</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>415</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>501</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>474</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="16">
         <v>461</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="16">
         <v>494</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="16">
         <v>567</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="16">
         <v>475</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="16">
         <v>439</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="16">
         <v>515</v>
       </c>
-      <c r="V11" s="17">
+      <c r="V11" s="16">
         <v>546</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="16">
         <v>454</v>
       </c>
-      <c r="X11" s="17"/>
+      <c r="X11" s="16">
+        <v>478</v>
+      </c>
     </row>
     <row r="12" spans="1:27" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1942,7 +1965,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>41.099999999999909</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -1979,31 +2002,31 @@
       <c r="L13" s="1">
         <v>83</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="27">
         <v>30</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="27">
         <v>226</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="27">
         <v>6</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="27">
         <v>2</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="27">
         <v>-93</v>
       </c>
       <c r="R13" s="1">
         <v>233</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="27">
         <v>5</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="27">
         <v>41</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="27">
         <v>-70</v>
       </c>
       <c r="V13" s="1">
@@ -2011,6 +2034,9 @@
       </c>
       <c r="W13" s="1">
         <v>6</v>
+      </c>
+      <c r="X13" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -2047,31 +2073,31 @@
       <c r="L14" s="1">
         <v>16</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="27">
         <v>7</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="27">
         <v>54</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="27">
         <v>2</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="27">
         <v>3</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="27">
         <v>-22</v>
       </c>
       <c r="R14" s="1">
         <v>49</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="27">
         <v>7</v>
       </c>
       <c r="T14" s="1">
         <v>9</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="27">
         <v>-15</v>
       </c>
       <c r="V14" s="1">
@@ -2079,6 +2105,9 @@
       </c>
       <c r="W14" s="1">
         <v>3</v>
+      </c>
+      <c r="X14" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2171,75 +2200,77 @@
       </c>
       <c r="X15" s="5">
         <f>X13-X14</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28">
         <v>-2.2599999999999998</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>1.62</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <v>3.2</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="28">
         <v>1.97</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="28">
         <v>1.71</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="28">
         <v>0.81</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="28">
         <v>2.7</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="28">
         <v>0.93</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="28">
         <v>0.83</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="28">
         <v>2.1</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="28">
         <v>0.01</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="28">
         <v>-0.02</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="28">
         <v>-0.92</v>
       </c>
       <c r="R16" s="1">
         <v>2.29</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S16" s="28">
         <v>-0.05</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T16" s="28">
         <v>0.4</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U16" s="28">
         <v>-0.71</v>
       </c>
-      <c r="V16" s="30">
+      <c r="V16" s="28">
         <v>2.33</v>
       </c>
       <c r="W16" s="1">
         <v>-0.02</v>
       </c>
-      <c r="X16" s="30"/>
+      <c r="X16" s="28">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -2281,22 +2312,22 @@
       <c r="O17" s="1">
         <v>0.01</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="27">
         <v>-0.02</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="27">
         <v>-0.92</v>
       </c>
       <c r="R17" s="1">
         <v>2.29</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="27">
         <v>-0.05</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="27">
         <v>0.4</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="27">
         <v>-0.71</v>
       </c>
       <c r="V17" s="1">
@@ -2305,90 +2336,93 @@
       <c r="W17" s="1">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="33" t="s">
+      <c r="X17" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="32">
         <f t="shared" ref="H19:X19" si="4">(H8/D8) - 1</f>
         <v>0.5140712945590995</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="32">
         <f t="shared" si="4"/>
         <v>6.5040650406503975E-2</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="32">
         <f t="shared" si="4"/>
         <v>3.5714285714285809E-2</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="32">
         <f t="shared" si="4"/>
         <v>-4.5045045045045029E-2</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="32">
         <f t="shared" si="4"/>
         <v>-5.762081784386619E-2</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="32">
         <f t="shared" si="4"/>
         <v>-8.5357390700902203E-2</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="32">
         <f t="shared" si="4"/>
         <v>-7.0804597701149441E-2</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="32">
         <f t="shared" si="4"/>
         <v>-5.1886792452830233E-2</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="32">
         <f t="shared" si="4"/>
         <v>-6.1801446416831052E-2</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="32">
         <f t="shared" si="4"/>
         <v>-4.0212443095599348E-2</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="32">
         <f t="shared" si="4"/>
         <v>3.0183077684314608E-2</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="32">
         <f t="shared" si="4"/>
         <v>-3.4115138592750505E-2</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19" s="32">
         <f t="shared" si="4"/>
         <v>-7.0077084793273015E-3</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19" s="32">
         <f t="shared" si="4"/>
         <v>6.4822134387351849E-2</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="32">
         <f t="shared" si="4"/>
         <v>1.1527377521613813E-2</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="32">
         <f t="shared" si="4"/>
         <v>-4.4150110375276164E-3</v>
       </c>
-      <c r="X19" s="34">
+      <c r="X19" s="32">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>2.9710656316160877E-2</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
@@ -2476,7 +2510,7 @@
       </c>
       <c r="X20" s="6">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>7.8418329637841788E-2</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
@@ -2559,6 +2593,10 @@
       <c r="W22" s="6">
         <v>0.35199999999999998</v>
       </c>
+      <c r="X22" s="6">
+        <f xml:space="preserve"> 519 / 1459</f>
+        <v>0.3557230980123372</v>
+      </c>
     </row>
     <row r="23" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
@@ -2627,61 +2665,65 @@
       <c r="W23" s="6">
         <v>2.3E-2</v>
       </c>
+      <c r="X23" s="6">
+        <f xml:space="preserve"> 41 / 1459</f>
+        <v>2.8101439342015078E-2</v>
+      </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="29">
         <v>315</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29">
         <v>201</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="29">
         <v>583</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="29">
         <v>102</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="29">
         <v>287</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="29">
         <v>-11</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="29">
         <v>473</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="29">
         <v>-146</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="29">
         <v>95</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="30">
         <v>-228</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="30">
         <v>716</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="30">
         <v>-108</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="30">
         <v>89</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="30">
         <v>-181</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="30">
         <v>589</v>
       </c>
-      <c r="S25" s="32">
+      <c r="S25" s="30">
         <v>-116</v>
       </c>
       <c r="T25" s="8">
@@ -2698,60 +2740,60 @@
       </c>
     </row>
     <row r="26" spans="2:24" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="26">
         <v>225</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26">
         <v>41</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="26">
         <v>16</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="26">
         <v>19</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="26">
         <v>47</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="26">
         <v>51</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="26">
         <v>52</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="26">
         <v>39</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="26">
         <v>37</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="27">
         <v>67</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="27">
         <f xml:space="preserve"> 39+369</f>
         <v>408</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="27">
         <v>55</v>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="27">
         <v>89</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="27">
         <v>80</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26" s="27">
         <v>32</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26" s="27">
         <v>39</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="27">
         <v>60</v>
       </c>
       <c r="U26" s="1">
@@ -2765,7 +2807,7 @@
       </c>
     </row>
     <row r="27" spans="2:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="8">
@@ -2858,30 +2900,30 @@
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
+      <c r="B28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="28"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
+      <c r="B29" s="26"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2967,7 +3009,7 @@
       </c>
     </row>
     <row r="32" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.2">
@@ -2994,10 +3036,12 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
-      <c r="W33" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="X33" s="13"/>
+      <c r="W33" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="X33" s="44" t="s">
+        <v>115</v>
+      </c>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
@@ -3006,62 +3050,69 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
       <c r="AF33" s="12"/>
-      <c r="AG33" s="14"/>
+      <c r="AG33" s="13"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="K34" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG34" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="W34" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="X34" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG34" s="15"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="W35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X35" s="17"/>
-      <c r="AG35" s="16"/>
-    </row>
-    <row r="36" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="20"/>
+      <c r="B35" s="14"/>
+      <c r="W35" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="X35" s="16"/>
+      <c r="AG35" s="15"/>
+    </row>
+    <row r="36" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="X36" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="19"/>
     </row>
     <row r="37" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:33" x14ac:dyDescent="0.2">
@@ -3082,13 +3133,13 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -3100,46 +3151,46 @@
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
-      <c r="Z38" s="14"/>
+      <c r="Z38" s="13"/>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
-      <c r="Z39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="Z39" s="15"/>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
-      <c r="Z40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="Z40" s="15"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
-      <c r="Z41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="Z41" s="15"/>
     </row>
     <row r="42" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="20"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="19"/>
     </row>
     <row r="43" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:33" x14ac:dyDescent="0.2">
@@ -3147,25 +3198,25 @@
       <c r="C44" s="12"/>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -3196,446 +3247,446 @@
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
       <c r="AF50" s="12"/>
-      <c r="AG50" s="14"/>
+      <c r="AG50" s="13"/>
     </row>
     <row r="51" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B51" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG51" s="16"/>
+      <c r="B51" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG51" s="15"/>
     </row>
     <row r="52" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="35"/>
-      <c r="AG52" s="36"/>
+      <c r="B52" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="33"/>
+      <c r="AG52" s="34"/>
     </row>
     <row r="53" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="36"/>
+      <c r="B53" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="33"/>
+      <c r="AG53" s="34"/>
     </row>
     <row r="54" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="35"/>
-      <c r="AG54" s="36"/>
+      <c r="B54" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="33"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="33"/>
+      <c r="AG54" s="34"/>
     </row>
     <row r="55" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="15"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="36"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="34"/>
     </row>
     <row r="56" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="36"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="33"/>
+      <c r="AG56" s="34"/>
     </row>
     <row r="57" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="36"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="33"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="34"/>
     </row>
     <row r="58" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="15"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="35"/>
-      <c r="AD58" s="35"/>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="35"/>
-      <c r="AG58" s="36"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="34"/>
     </row>
     <row r="59" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="15"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="36"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="33"/>
+      <c r="AG59" s="34"/>
     </row>
     <row r="60" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="15"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-      <c r="AC60" s="35"/>
-      <c r="AD60" s="35"/>
-      <c r="AE60" s="35"/>
-      <c r="AF60" s="35"/>
-      <c r="AG60" s="36"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="33"/>
+      <c r="AD60" s="33"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="33"/>
+      <c r="AG60" s="34"/>
     </row>
     <row r="61" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="15"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="35"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="36"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="34"/>
     </row>
     <row r="62" spans="2:33" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
       <c r="R62" s="8"/>
-      <c r="AG62" s="16"/>
+      <c r="AG62" s="15"/>
     </row>
     <row r="63" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B63" s="15"/>
-      <c r="AG63" s="16"/>
+      <c r="B63" s="14"/>
+      <c r="AG63" s="15"/>
     </row>
     <row r="64" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B64" s="15"/>
-      <c r="AG64" s="16"/>
+      <c r="B64" s="14"/>
+      <c r="AG64" s="15"/>
     </row>
     <row r="65" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B65" s="15"/>
-      <c r="AG65" s="16"/>
+      <c r="B65" s="14"/>
+      <c r="AG65" s="15"/>
     </row>
     <row r="66" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B66" s="15"/>
-      <c r="AG66" s="16"/>
+      <c r="B66" s="14"/>
+      <c r="AG66" s="15"/>
     </row>
     <row r="67" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B67" s="15"/>
-      <c r="AG67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="AG67" s="15"/>
     </row>
     <row r="68" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B68" s="15"/>
-      <c r="AG68" s="16"/>
+      <c r="B68" s="14"/>
+      <c r="AG68" s="15"/>
     </row>
     <row r="69" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B69" s="15"/>
-      <c r="AG69" s="16"/>
+      <c r="B69" s="14"/>
+      <c r="AG69" s="15"/>
     </row>
     <row r="70" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B70" s="15"/>
-      <c r="AG70" s="16"/>
+      <c r="B70" s="14"/>
+      <c r="AG70" s="15"/>
     </row>
     <row r="71" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B71" s="15"/>
-      <c r="AG71" s="16"/>
+      <c r="B71" s="14"/>
+      <c r="AG71" s="15"/>
     </row>
     <row r="72" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B72" s="15"/>
-      <c r="AG72" s="16"/>
+      <c r="B72" s="14"/>
+      <c r="AG72" s="15"/>
     </row>
     <row r="73" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B73" s="15"/>
-      <c r="AG73" s="16"/>
+      <c r="B73" s="14"/>
+      <c r="AG73" s="15"/>
     </row>
     <row r="74" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B74" s="15"/>
-      <c r="AG74" s="16"/>
+      <c r="B74" s="14"/>
+      <c r="AG74" s="15"/>
     </row>
     <row r="75" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
-      <c r="W75" s="19"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="19"/>
-      <c r="Z75" s="19"/>
-      <c r="AA75" s="19"/>
-      <c r="AB75" s="19"/>
-      <c r="AC75" s="19"/>
-      <c r="AD75" s="19"/>
-      <c r="AE75" s="19"/>
-      <c r="AF75" s="19"/>
-      <c r="AG75" s="20"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="18"/>
+      <c r="AA75" s="18"/>
+      <c r="AB75" s="18"/>
+      <c r="AC75" s="18"/>
+      <c r="AD75" s="18"/>
+      <c r="AE75" s="18"/>
+      <c r="AF75" s="18"/>
+      <c r="AG75" s="19"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3662,10 +3713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D091CCF-214C-4799-9BEE-D3FB22B6975A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3674,17 +3725,17 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1">
         <v>782</v>
@@ -3692,10 +3743,13 @@
       <c r="D2" s="1">
         <v>772</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1">
         <v>24</v>
@@ -3703,10 +3757,13 @@
       <c r="D3" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
@@ -3714,10 +3771,13 @@
       <c r="D4" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1">
         <v>40</v>
@@ -3725,10 +3785,13 @@
       <c r="D5" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1">
         <v>324</v>
@@ -3736,10 +3799,13 @@
       <c r="D6" s="1">
         <v>325</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1">
         <v>181</v>
@@ -3747,10 +3813,13 @@
       <c r="D7" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -3758,8 +3827,11 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <f>SUM(C2:C8)</f>
         <v>1387</v>
@@ -3767,6 +3839,10 @@
       <c r="D9" s="1">
         <f>SUM(D2:D8)</f>
         <v>1378</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUM(E2:E8)</f>
+        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -3789,7 +3865,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B1">
         <v>381</v>
@@ -3797,7 +3873,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>105</v>
@@ -3805,7 +3881,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>596</v>
@@ -3850,7 +3926,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,336 +3944,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="36">
         <v>5.27</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="36">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="E2" s="37">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F2" s="38">
+        <v>16.5</v>
+      </c>
+      <c r="G2" s="38">
+        <v>15.18</v>
+      </c>
+      <c r="H2" s="38">
+        <v>8.94</v>
+      </c>
+      <c r="I2" s="38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="39">
+        <v>5.03</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0.53</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E3" s="40">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F3" s="21">
+        <v>9.4</v>
+      </c>
+      <c r="G3" s="21">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H3" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="I3" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="21">
+        <v>15.16</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E4" s="40">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F4" s="39">
+        <v>8.4</v>
+      </c>
+      <c r="G4" s="39">
+        <v>9.1</v>
+      </c>
+      <c r="H4" s="39">
+        <v>6.2</v>
+      </c>
+      <c r="I4" s="39">
+        <v>0.47</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="39">
+        <v>6.49</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.41</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F5" s="39">
+        <v>19.5</v>
+      </c>
+      <c r="G5" s="39">
+        <v>14.7</v>
+      </c>
+      <c r="H5" s="39">
+        <v>9.4</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1.18</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="39">
+        <v>5.68</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="E6" s="40">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F6" s="39">
+        <v>16.3</v>
+      </c>
+      <c r="G6" s="39">
+        <v>15.5</v>
+      </c>
+      <c r="H6" s="39">
+        <v>11</v>
+      </c>
+      <c r="I6" s="39">
+        <v>1.24</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="39">
+        <v>1.23</v>
+      </c>
+      <c r="C7" s="39">
         <v>0.2</v>
       </c>
-      <c r="D2" s="25">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="E2" s="25">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F2" s="23">
-        <v>12.4</v>
-      </c>
-      <c r="G2" s="23">
-        <v>11.7</v>
-      </c>
-      <c r="H2" s="23">
-        <v>7.3</v>
-      </c>
-      <c r="I2" s="22">
-        <v>0.38</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="23">
-        <v>5.03</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0.53</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="E3" s="25">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F3" s="22">
-        <v>9.4</v>
-      </c>
-      <c r="G3" s="22">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H3" s="22">
-        <v>5.6</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0.91</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="22">
-        <v>15.16</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0.88</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="E4" s="25">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F4" s="23">
-        <v>8.4</v>
-      </c>
-      <c r="G4" s="23">
-        <v>9.1</v>
-      </c>
-      <c r="H4" s="23">
-        <v>6.2</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.47</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="23">
-        <v>6.49</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0.41</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F5" s="23">
-        <v>19.5</v>
-      </c>
-      <c r="G5" s="23">
-        <v>14.7</v>
-      </c>
-      <c r="H5" s="23">
-        <v>9.4</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1.18</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="23">
-        <v>5.68</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="E6" s="25">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F6" s="23">
-        <v>16.3</v>
-      </c>
-      <c r="G6" s="23">
-        <v>15.5</v>
-      </c>
-      <c r="H6" s="23">
-        <v>11</v>
-      </c>
-      <c r="I6" s="23">
-        <v>1.24</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="23">
-        <v>1.23</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="D7" s="40">
         <v>0.59</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="39">
         <v>12.9</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="39">
         <v>13.6</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="39">
         <v>9.6</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="39">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="39">
         <v>10.75</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>1.81</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="40">
         <v>0.59299999999999997</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>0.23400000000000001</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="39">
         <v>13.3</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="39">
         <v>13.3</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="39">
         <v>7.9</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="39">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="23">
-        <v>6.22</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="A9" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="39">
+        <v>6.96</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="E9" s="40">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="F9" s="39">
+        <v>9.51</v>
+      </c>
+      <c r="G9" s="39">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H9" s="39">
+        <v>7.71</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="39">
+        <v>2.11</v>
+      </c>
+      <c r="C10" s="39">
         <v>0.17</v>
       </c>
-      <c r="D9" s="25">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E9" s="25">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F9" s="23">
-        <v>9.6</v>
-      </c>
-      <c r="G9" s="23">
-        <v>10.4</v>
-      </c>
-      <c r="H9" s="23">
-        <v>7.4</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.439</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F10" s="23">
-        <v>37</v>
-      </c>
-      <c r="G10" s="23">
-        <v>26.9</v>
-      </c>
-      <c r="H10" s="23">
-        <v>17.3</v>
-      </c>
-      <c r="I10" s="23">
-        <v>2.92</v>
+      <c r="D10" s="40">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="E10" s="40">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F10" s="39">
+        <v>19.72</v>
+      </c>
+      <c r="G10" s="39">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H10" s="39">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I10" s="39">
+        <v>2.72</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="E11" s="25">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F11" s="23">
-        <v>20.9</v>
-      </c>
-      <c r="G11" s="23">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H11" s="23">
-        <v>7.6</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0.88</v>
+      <c r="A11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="39">
+        <v>24.71</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1.05</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="E11" s="40">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="F11" s="39">
+        <v>23.13</v>
+      </c>
+      <c r="G11" s="39">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H11" s="39">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I11" s="39">
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -4206,6 +4282,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -4349,15 +4434,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4365,6 +4441,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4378,14 +4462,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
